--- a/data/hobo_new.xlsx
+++ b/data/hobo_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\R\first_repo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A311304-3BFF-41F9-8997-7DDAE07AB8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD2BB4A-1293-4A25-A211-2A16FF9EF5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6F71F988-9A27-4862-9992-09E1B2335825}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="251">
   <si>
     <t>site</t>
   </si>
@@ -618,10 +609,175 @@
     <t>2018-09-21 09:30:00</t>
   </si>
   <si>
-    <t>2018-09-29 11:30:00</t>
-  </si>
-  <si>
     <t>2018-09-22 00:00:00</t>
+  </si>
+  <si>
+    <t>2018-11-03 15:05:00</t>
+  </si>
+  <si>
+    <t>2018-09-25 18:25:00</t>
+  </si>
+  <si>
+    <t>2018-09-26 19:00:00</t>
+  </si>
+  <si>
+    <t>2018-10-02 19:25:00</t>
+  </si>
+  <si>
+    <t>2018-10-11 09:00:00</t>
+  </si>
+  <si>
+    <t>2018-10-11 12:25:00</t>
+  </si>
+  <si>
+    <t>2018-10-11 17:00:00</t>
+  </si>
+  <si>
+    <t>2018-11-03 03:40:00</t>
+  </si>
+  <si>
+    <t>2018-11-02 09:40:00</t>
+  </si>
+  <si>
+    <t>2018-09-21 11:30:00</t>
+  </si>
+  <si>
+    <t>2018-09-21 10:10:00</t>
+  </si>
+  <si>
+    <t>2018-09-21 22:35:00</t>
+  </si>
+  <si>
+    <t>2018-09-25 11:45:00</t>
+  </si>
+  <si>
+    <t>2018-09-26 16:45:00</t>
+  </si>
+  <si>
+    <t>2018-10-02 03:05:00</t>
+  </si>
+  <si>
+    <t>2018-10-11 11:35:00</t>
+  </si>
+  <si>
+    <t>2018-10-11 15:40:00</t>
+  </si>
+  <si>
+    <t>2018-11-01 21:10:00</t>
+  </si>
+  <si>
+    <t>2018-11-03 01:20:00</t>
+  </si>
+  <si>
+    <t>2018-11-03 12:00:00</t>
+  </si>
+  <si>
+    <t>2018-10-11 18:15:00</t>
+  </si>
+  <si>
+    <t>2018-07-26 12:00:00</t>
+  </si>
+  <si>
+    <t>2018-09-03 20:35:00</t>
+  </si>
+  <si>
+    <t>2018-09-11 01:10:00</t>
+  </si>
+  <si>
+    <t>2018-09-21 08:25:00</t>
+  </si>
+  <si>
+    <t>2018-09-21 09:35:00</t>
+  </si>
+  <si>
+    <t>2018-09-03 21:05:00</t>
+  </si>
+  <si>
+    <t>2018-07-26 14:10:00</t>
+  </si>
+  <si>
+    <t>2018-09-03 19:30:00</t>
+  </si>
+  <si>
+    <t>2018-09-11 05:50:00</t>
+  </si>
+  <si>
+    <t>2018-09-26 23:55:00</t>
+  </si>
+  <si>
+    <t>2018-10-02 19:30:00</t>
+  </si>
+  <si>
+    <t>2018-10-11 19:15:00</t>
+  </si>
+  <si>
+    <t>2018-10-11 17:05:00</t>
+  </si>
+  <si>
+    <t>2018-10-11 12:40:00</t>
+  </si>
+  <si>
+    <t>2018-10-11 09:05:00</t>
+  </si>
+  <si>
+    <t>2018-11-02 11:05:00</t>
+  </si>
+  <si>
+    <t>2018-11-03 03:35:00</t>
+  </si>
+  <si>
+    <t>2018-11-03 13:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-07-26 11:55:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-07-26 13:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-09-03 18:15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-09-03 20:35:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-09-11 01:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-09-21 08:15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-09-21 10:15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-09-21 22:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-09-25 10:55:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-09-26 16:35:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-10-02 00:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-10-11 06:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-10-11 11:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-10-11 15:50:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-10-11 18:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-11-03 12:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2018-11-02 22:15:00</t>
   </si>
 </sst>
 </file>
@@ -643,18 +799,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -669,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -678,15 +828,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,16 +1145,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30325800-785D-4066-B550-5238A6F2BB87}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F14" sqref="A1:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A75" sqref="A73:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.88671875" customWidth="1"/>
@@ -1047,10 +1190,10 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" t="s">
         <v>147</v>
       </c>
       <c r="F2" s="1"/>
@@ -1071,113 +1214,113 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1267,330 +1410,443 @@
         <v>23</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="6">
-        <v>5</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6">
-        <v>5</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
-        <v>6</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="6">
-        <v>7</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="6">
-        <v>8</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="6">
+      <c r="B27">
         <v>9</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="7"/>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" t="s">
-        <v>48</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>159</v>
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" t="s">
+        <v>163</v>
       </c>
       <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>50</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" t="s">
-        <v>55</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" t="s">
-        <v>55</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>162</v>
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" t="s">
+        <v>164</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1600,173 +1856,207 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="6">
-        <v>5</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="6">
-        <v>6</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="6">
-        <v>7</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="6">
-        <v>8</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="6">
-        <v>9</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>187</v>
+      </c>
+      <c r="E45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
-      </c>
-      <c r="F46" t="s">
-        <v>66</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" t="s">
+        <v>174</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>67</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" t="s">
+        <v>151</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>67</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F50" t="s">
-        <v>70</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D50" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50" t="s">
+        <v>175</v>
+      </c>
+      <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>67</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E51" t="s">
-        <v>179</v>
-      </c>
-      <c r="F51" s="1"/>
+        <v>176</v>
+      </c>
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -1774,215 +2064,266 @@
         <v>67</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" t="s">
-        <v>186</v>
-      </c>
-      <c r="E52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>67</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="E53" t="s">
-        <v>178</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>67</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="6">
-        <v>5</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="6">
-        <v>5</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="6">
-        <v>6</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="6">
-        <v>7</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="6">
-        <v>8</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G59" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" t="s">
+        <v>188</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>189</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" t="s">
+        <v>190</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" t="s">
+        <v>217</v>
+      </c>
+      <c r="E58" t="s">
+        <v>191</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59" t="s">
+        <v>192</v>
+      </c>
+      <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D60" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" t="s">
+        <v>193</v>
+      </c>
+      <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B61">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="D61" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E62" t="s">
-        <v>86</v>
-      </c>
-      <c r="G62" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" t="s">
+        <v>207</v>
+      </c>
+      <c r="E63" t="s">
+        <v>196</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" t="s">
+        <v>197</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" t="s">
+        <v>198</v>
+      </c>
+      <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>88</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" s="2">
-        <v>43307.5</v>
+        <v>97</v>
+      </c>
+      <c r="D66" t="s">
+        <v>128</v>
       </c>
       <c r="E66" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="G66" s="2"/>
     </row>
@@ -1991,16 +2332,16 @@
         <v>88</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
-      </c>
-      <c r="D67" s="2">
-        <v>43307.5625</v>
+        <v>124</v>
+      </c>
+      <c r="D67" t="s">
+        <v>210</v>
       </c>
       <c r="E67" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="G67" s="2"/>
     </row>
@@ -2009,624 +2350,420 @@
         <v>88</v>
       </c>
       <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" t="s">
+        <v>211</v>
+      </c>
+      <c r="E68" t="s">
+        <v>201</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" t="s">
+        <v>215</v>
+      </c>
+      <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70" t="s">
+        <v>203</v>
+      </c>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71" t="s">
+        <v>48</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" t="s">
+        <v>195</v>
+      </c>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" t="s">
+        <v>234</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" t="s">
+        <v>235</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75">
         <v>2</v>
       </c>
-      <c r="C68" t="s">
-        <v>90</v>
-      </c>
-      <c r="D68" s="2">
-        <v>43346.763888888891</v>
-      </c>
-      <c r="E68" t="s">
-        <v>190</v>
-      </c>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B69" s="6">
+      <c r="C75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76">
         <v>2</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D69" s="7">
-        <v>43346.857638888891</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" s="6">
+      <c r="C76" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" t="s">
+        <v>237</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77">
         <v>3</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70" s="7">
-        <v>43354.048611111109</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" s="6">
+      <c r="C77" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" t="s">
+        <v>238</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78">
         <v>4</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" s="7">
-        <v>43364.350694444445</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B72" s="4">
+      <c r="C78" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" t="s">
+        <v>239</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79">
         <v>4</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D72" s="5">
-        <v>43364.423611111109</v>
-      </c>
-      <c r="E72" s="4" t="s">
+      <c r="C79" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" t="s">
+        <v>240</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>114</v>
+      </c>
+      <c r="D80" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G72" s="5">
-        <v>43364.479166666664</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B73" s="4">
-        <v>4</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D73" s="5">
-        <v>43364.940972222219</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G73" s="5">
-        <v>43365</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74" s="4">
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81">
         <v>5</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" s="5">
-        <v>43368.489583333336</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G74" s="5">
-        <v>43368.767361111109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" s="4">
+      <c r="C81" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" t="s">
+        <v>242</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82">
         <v>5</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D75" s="5">
-        <v>43369.697916666664</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G75" s="5">
-        <v>43369.791666666664</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="4">
+      <c r="C82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" t="s">
+        <v>243</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83">
         <v>6</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D76" s="5">
-        <v>43375.128472222219</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G76" s="5">
-        <v>43375.809027777781</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77" s="4">
+      <c r="C83" t="s">
+        <v>109</v>
+      </c>
+      <c r="D83" t="s">
+        <v>244</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84">
         <v>7</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G77" s="5">
-        <v>43384.375</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B78" s="4">
+      <c r="C84" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84" t="s">
+        <v>245</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85">
         <v>7</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D78" s="5">
-        <v>43384.482638888891</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G78" s="5">
-        <v>43384.517361111109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79" s="4">
+      <c r="C85" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" t="s">
+        <v>246</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86">
         <v>7</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D79" s="5">
-        <v>43384.652777777781</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G79" s="5">
-        <v>43384.708333333336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" s="4">
-        <v>7</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D80" s="5">
-        <v>43384.760416666664</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G80" s="5">
-        <v>43384.815972222219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81" s="4">
-        <v>8</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D81" s="5">
-        <v>43405.881944444445</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G81" s="5">
-        <v>43406.402777777781</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82" s="4">
-        <v>9</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D82" s="5">
-        <v>43407.055555555555</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G82" s="5">
-        <v>43407.152777777781</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="4">
-        <v>9</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D83" s="5">
-        <v>43407.5</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G83" s="5">
-        <v>43407.628472222219</v>
-      </c>
+      <c r="C86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" t="s">
+        <v>247</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G86" s="2"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>100</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
-      </c>
-      <c r="D87" s="1">
-        <v>43307.496527777781</v>
-      </c>
-      <c r="E87" s="2">
-        <v>43307.541666666664</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D87" t="s">
+        <v>248</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G87" s="2"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>110</v>
-      </c>
-      <c r="D88" s="1">
-        <v>43307.5625</v>
-      </c>
-      <c r="E88" s="2">
-        <v>43307.590277777781</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D88" t="s">
+        <v>119</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>100</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
-      </c>
-      <c r="D89" s="2">
-        <v>43346.760416666664</v>
-      </c>
-      <c r="E89" s="2">
-        <v>43346.8125</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D89" t="s">
+        <v>250</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F89" t="s">
+        <v>66</v>
+      </c>
+      <c r="G89" s="2"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>100</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>111</v>
-      </c>
-      <c r="D90" s="2">
-        <v>43346.857638888891</v>
-      </c>
-      <c r="E90" s="2">
-        <v>43346.878472222219</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91">
-        <v>3</v>
-      </c>
-      <c r="C91" t="s">
-        <v>103</v>
-      </c>
-      <c r="D91" s="2">
-        <v>43354.045138888891</v>
-      </c>
-      <c r="E91" s="2">
-        <v>43354.243055555555</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>100</v>
-      </c>
-      <c r="B92">
-        <v>4</v>
-      </c>
-      <c r="C92" t="s">
-        <v>104</v>
-      </c>
-      <c r="D92" s="2">
-        <v>43364.34375</v>
-      </c>
-      <c r="E92" s="2">
-        <v>43364.399305555555</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>100</v>
-      </c>
-      <c r="B93">
-        <v>4</v>
-      </c>
-      <c r="C93" t="s">
-        <v>112</v>
-      </c>
-      <c r="D93" s="2">
-        <v>43364.427083333336</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B94">
-        <v>4</v>
-      </c>
-      <c r="C94" t="s">
-        <v>114</v>
-      </c>
-      <c r="D94" s="2">
-        <v>43364.9375</v>
-      </c>
-      <c r="E94" s="2">
-        <v>43365</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95">
-        <v>5</v>
-      </c>
-      <c r="C95" t="s">
-        <v>108</v>
-      </c>
-      <c r="D95" s="2">
-        <v>43368.454861111109</v>
-      </c>
-      <c r="E95" s="2">
-        <v>43368.767361111109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96">
-        <v>5</v>
-      </c>
-      <c r="C96" t="s">
-        <v>115</v>
-      </c>
-      <c r="D96" s="1">
-        <v>43369.690972222219</v>
-      </c>
-      <c r="E96" s="2">
-        <v>43369.996527777781</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97">
-        <v>6</v>
-      </c>
-      <c r="C97" t="s">
-        <v>109</v>
-      </c>
-      <c r="D97" s="2">
-        <v>43375.003472222219</v>
-      </c>
-      <c r="E97" s="2">
-        <v>43375.8125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
-        <v>107</v>
-      </c>
-      <c r="D98" s="2">
-        <v>43384.25</v>
-      </c>
-      <c r="E98" s="2">
-        <v>43384.378472222219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
-        <v>116</v>
-      </c>
-      <c r="D99" s="2">
-        <v>43384.479166666664</v>
-      </c>
-      <c r="E99" s="2">
-        <v>43384.527777777781</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
-        <v>117</v>
-      </c>
-      <c r="D100" s="2">
-        <v>43384.659722222219</v>
-      </c>
-      <c r="E100" s="2">
-        <v>43384.711805555555</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
-        <v>118</v>
-      </c>
-      <c r="D101" s="2">
-        <v>43384.770833333336</v>
-      </c>
-      <c r="E101" s="2">
-        <v>43384.802083333336</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>8</v>
-      </c>
-      <c r="C102" t="s">
-        <v>106</v>
-      </c>
-      <c r="D102" t="s">
-        <v>119</v>
-      </c>
-      <c r="E102" s="2">
-        <v>43406.461805555555</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103">
-        <v>9</v>
-      </c>
-      <c r="C103" t="s">
-        <v>105</v>
-      </c>
-      <c r="D103" s="2">
-        <v>43406.927083333336</v>
-      </c>
-      <c r="E103" s="2">
-        <v>43407.149305555555</v>
-      </c>
-      <c r="F103" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>100</v>
-      </c>
-      <c r="B104">
-        <v>9</v>
-      </c>
-      <c r="C104" t="s">
         <v>120</v>
       </c>
-      <c r="D104" s="2">
-        <v>43407.5</v>
-      </c>
-      <c r="E104" s="2">
-        <v>43407.5625</v>
-      </c>
+      <c r="D90" t="s">
+        <v>249</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G90" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
